--- a/02_최종본/04/요구사항.xlsx
+++ b/02_최종본/04/요구사항.xlsx
@@ -43,367 +43,367 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공지사항(팝업)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬리퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/패스워드 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단바 (유저기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발(드롭다운)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale 붙은 상품 보여주기</t>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 페이징처리+검색(제목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이름으로 검색</t>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/패스워드 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품할인적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품할인삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의내용확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ글 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ글 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---관리자----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품전체목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품옵션선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심상품등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니상품조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록(관리자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/SwiftlyAside/ProjektFinal</t>
+  </si>
+  <si>
+    <t>https://github.com/77kkyu/Style_Is_You</t>
+  </si>
+  <si>
+    <t>수강생프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿디자인웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gdweb.co.kr/main/index.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이구민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오은진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백, 프론트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greenart.co.kr/plugin/pdf/web/viewer.php?file=2017%2F20171012171024.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느정도 구현중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 찾기 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부적인 기능 조정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체상품페이지 세일은 나옴, 세일 카테고리 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 없음. 구현 불필요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되면 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속제한, 권한 현재 미설정, 프론트 권한에 따른 버튼, 페이지 보이기 안보이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저랑 연동되도록 변경해야함(보류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송조회 일단 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 미정</t>
+  </si>
+  <si>
     <t>주문/배송조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항(팝업)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬리퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디/패스워드 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단바 (유저기능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신발(드롭다운)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale 붙은 상품 보여주기</t>
-  </si>
-  <si>
-    <t>글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세게시글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 페이징처리+검색(제목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품이름으로 검색</t>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디/패스워드 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품할인적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품할인삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의내용확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문한상품목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심상품목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ글 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ글 상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---관리자----</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품전체목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품옵션선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심상품등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니상품조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품등록(관리자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/SwiftlyAside/ProjektFinal</t>
-  </si>
-  <si>
-    <t>https://github.com/77kkyu/Style_Is_You</t>
-  </si>
-  <si>
-    <t>수강생프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굿디자인웹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.gdweb.co.kr/main/index.asp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강생프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이구민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박종호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오은진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백, 프론트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://greenart.co.kr/plugin/pdf/web/viewer.php?file=2017%2F20171012171024.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어느정도 구현중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 찾기 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부적인 기능 조정 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체상품페이지 세일은 나옴, 세일 카테고리 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 수정 없음. 구현 불필요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>되면 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속제한, 권한 현재 미설정, 프론트 권한에 따른 버튼, 페이지 보이기 안보이기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저랑 연동되도록 변경해야함(보류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송조회 일단 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 미정</t>
   </si>
 </sst>
 </file>
@@ -912,9 +912,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,6 +961,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,25 +986,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,34 +1287,34 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1350,468 +1350,469 @@
     <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" s="11"/>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="10"/>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="12"/>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="36"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="20"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="36"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="46" t="s">
-        <v>16</v>
+      <c r="B9" s="42"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="53" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="20"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="36"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="36"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="7" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="36"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="41" t="s">
-        <v>57</v>
+      <c r="B12" s="42"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="36"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="42"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="27" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="36"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="36"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="36"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>13</v>
+      <c r="B18" s="42"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="36"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="42" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="42"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="42"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="42"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="36"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="36"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="36"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="42"/>
+      <c r="C24" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="36"/>
-      <c r="C24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>49</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="36"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="42"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="42"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="36"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="36"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H27" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="36"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="52" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="51" t="s">
-        <v>25</v>
+      <c r="F28" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="36"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="53" t="s">
-        <v>83</v>
+      <c r="B29" s="42"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="49" t="s">
-        <v>27</v>
+      <c r="F29" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="G29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="42"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="36"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H30" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="36"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="53"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="51" t="s">
-        <v>26</v>
+      <c r="F31" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="36"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="52" t="s">
-        <v>31</v>
+      <c r="F32" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="36"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="36"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="38" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="44" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="36"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7"/>
       <c r="F35" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="36"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="7"/>
       <c r="F36" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="37"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="16"/>
       <c r="G37" s="1"/>
       <c r="H37" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D9:D17"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D24:D27"/>
@@ -1828,7 +1829,6 @@
     <mergeCell ref="C6:C23"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D9:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,57 +1853,57 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
